--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121012a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121012a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +582,27 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1739079783681008</v>
+      </c>
+      <c r="D5">
+        <v>0.1570444389825199</v>
+      </c>
+      <c r="E5">
+        <v>0.5852762338220407</v>
+      </c>
+      <c r="F5">
+        <v>0.6110302151047035</v>
+      </c>
+      <c r="G5">
+        <v>1.435825985047409</v>
+      </c>
+      <c r="H5">
+        <v>0.6712091032256674</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -597,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1739079783681008</v>
+        <v>0.3207743071184909</v>
       </c>
       <c r="D6">
-        <v>0.1570444389825199</v>
+        <v>0.3520263177548667</v>
       </c>
       <c r="E6">
-        <v>0.5852762338220407</v>
+        <v>2.319417130593243</v>
       </c>
       <c r="F6">
-        <v>0.6110302151047035</v>
+        <v>1.478801741509083</v>
       </c>
       <c r="G6">
-        <v>1.435825985047409</v>
+        <v>4.900840657227419</v>
       </c>
       <c r="H6">
-        <v>0.6712091032256674</v>
+        <v>1.566830102619022</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -623,28 +638,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3207743071184909</v>
+        <v>0.4232305795524164</v>
       </c>
       <c r="D7">
-        <v>0.3520263177548667</v>
+        <v>0.41259983184932</v>
       </c>
       <c r="E7">
-        <v>2.319417130593243</v>
+        <v>1.87587089326341</v>
       </c>
       <c r="F7">
-        <v>1.478801741509083</v>
+        <v>0.5958440660750598</v>
       </c>
       <c r="G7">
-        <v>4.900840657227419</v>
+        <v>4.784124350851289</v>
       </c>
       <c r="H7">
-        <v>1.566830102619022</v>
+        <v>0.6998220421491812</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.340961929829455</v>
+      </c>
+      <c r="D8">
+        <v>1.31552163031794</v>
+      </c>
+      <c r="E8">
+        <v>2.711240736923488</v>
+      </c>
+      <c r="F8">
+        <v>1.446852957979716</v>
+      </c>
+      <c r="G8">
+        <v>6.745022878807889</v>
+      </c>
+      <c r="H8">
+        <v>1.619663949971733</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -654,22 +690,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4232305795524164</v>
+        <v>1.764950883081924</v>
       </c>
       <c r="D9">
-        <v>0.41259983184932</v>
+        <v>1.725076761387631</v>
       </c>
       <c r="E9">
-        <v>1.87587089326341</v>
+        <v>5.297056354204429</v>
       </c>
       <c r="F9">
-        <v>0.5958440660750598</v>
+        <v>1.86180334820621</v>
       </c>
       <c r="G9">
-        <v>4.784124350851289</v>
+        <v>10.43242465802433</v>
       </c>
       <c r="H9">
-        <v>0.6998220421491812</v>
+        <v>2.21369327624979</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -680,22 +716,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.340961929829455</v>
+        <v>1.064746547750123</v>
       </c>
       <c r="D10">
-        <v>1.31552163031794</v>
+        <v>1.026173503006008</v>
       </c>
       <c r="E10">
-        <v>2.711240736923488</v>
+        <v>5.336803948714926</v>
       </c>
       <c r="F10">
-        <v>1.446852957979716</v>
+        <v>1.380852278712207</v>
       </c>
       <c r="G10">
-        <v>6.745022878807889</v>
+        <v>16.67370609250198</v>
       </c>
       <c r="H10">
-        <v>1.619663949971733</v>
+        <v>1.400709267091385</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -706,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.764950883081924</v>
+        <v>1.833662173795753</v>
       </c>
       <c r="D11">
-        <v>1.725076761387631</v>
+        <v>1.749955949553077</v>
       </c>
       <c r="E11">
-        <v>5.297056354204429</v>
+        <v>7.887743352319755</v>
       </c>
       <c r="F11">
-        <v>1.86180334820621</v>
+        <v>2.955875968242379</v>
       </c>
       <c r="G11">
-        <v>10.43242465802433</v>
+        <v>15.88821885150753</v>
       </c>
       <c r="H11">
-        <v>2.21369327624979</v>
+        <v>3.175512412368311</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -732,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.064746547750123</v>
+        <v>0.6055014810173099</v>
       </c>
       <c r="D12">
-        <v>1.026173503006008</v>
+        <v>0.5845829013513305</v>
       </c>
       <c r="E12">
-        <v>5.336803948714926</v>
+        <v>2.983071202006427</v>
       </c>
       <c r="F12">
-        <v>1.380852278712207</v>
+        <v>0.8870364661008429</v>
       </c>
       <c r="G12">
-        <v>16.67370609250198</v>
+        <v>7.947596501571899</v>
       </c>
       <c r="H12">
-        <v>1.400709267091385</v>
+        <v>1.116460336254104</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -758,22 +794,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.833662173795753</v>
+        <v>2.036665297600243</v>
       </c>
       <c r="D13">
-        <v>1.749955949553077</v>
+        <v>2.040852232795045</v>
       </c>
       <c r="E13">
-        <v>7.887743352319755</v>
+        <v>8.541366640995978</v>
       </c>
       <c r="F13">
-        <v>2.955875968242379</v>
+        <v>2.853877525320319</v>
       </c>
       <c r="G13">
-        <v>15.88821885150753</v>
+        <v>20.15859346828114</v>
       </c>
       <c r="H13">
-        <v>3.175512412368311</v>
+        <v>3.023455644518775</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -784,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6055014810173099</v>
+        <v>0.9206097048212099</v>
       </c>
       <c r="D14">
-        <v>0.5845829013513305</v>
+        <v>0.9601763346879926</v>
       </c>
       <c r="E14">
-        <v>2.983071202006427</v>
+        <v>5.25346651757881</v>
       </c>
       <c r="F14">
-        <v>0.8870364661008429</v>
+        <v>1.710017377204261</v>
       </c>
       <c r="G14">
-        <v>7.947596501571899</v>
+        <v>11.7223259302525</v>
       </c>
       <c r="H14">
-        <v>1.116460336254104</v>
+        <v>2.071871351214844</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -810,22 +846,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.036665297600243</v>
+        <v>0.3002378523417858</v>
       </c>
       <c r="D15">
-        <v>2.040852232795045</v>
+        <v>0.2791391667932557</v>
       </c>
       <c r="E15">
-        <v>8.541366640995978</v>
+        <v>1.661633585151608</v>
       </c>
       <c r="F15">
-        <v>2.853877525320319</v>
+        <v>0.6603596569339943</v>
       </c>
       <c r="G15">
-        <v>20.15859346828114</v>
+        <v>2.663685652636037</v>
       </c>
       <c r="H15">
-        <v>3.023455644518775</v>
+        <v>0.7373859436497215</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -836,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.9206097048212099</v>
+        <v>1.314742671095027</v>
       </c>
       <c r="D16">
-        <v>0.9601763346879926</v>
+        <v>1.253107179937452</v>
       </c>
       <c r="E16">
-        <v>5.25346651757881</v>
+        <v>8.182312162844699</v>
       </c>
       <c r="F16">
-        <v>1.710017377204261</v>
+        <v>2.510510496138272</v>
       </c>
       <c r="G16">
-        <v>11.7223259302525</v>
+        <v>13.9441141117788</v>
       </c>
       <c r="H16">
-        <v>2.071871351214844</v>
+        <v>2.953700506413347</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -862,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3002378523417858</v>
+        <v>1.473311389932645</v>
       </c>
       <c r="D17">
-        <v>0.2791391667932557</v>
+        <v>1.335420887030211</v>
       </c>
       <c r="E17">
-        <v>1.661633585151608</v>
+        <v>8.866304240333374</v>
       </c>
       <c r="F17">
-        <v>0.6603596569339943</v>
+        <v>2.754835684439129</v>
       </c>
       <c r="G17">
-        <v>2.663685652636037</v>
+        <v>20.57655104942032</v>
       </c>
       <c r="H17">
-        <v>0.7373859436497215</v>
+        <v>2.549569896314124</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -888,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.314742671095027</v>
+        <v>0.6967299579382628</v>
       </c>
       <c r="D18">
-        <v>1.253107179937452</v>
+        <v>0.6372873549072957</v>
       </c>
       <c r="E18">
-        <v>8.182312162844699</v>
+        <v>3.128396334610162</v>
       </c>
       <c r="F18">
-        <v>2.510510496138272</v>
+        <v>1.364448422370332</v>
       </c>
       <c r="G18">
-        <v>13.9441141117788</v>
+        <v>8.886093189853174</v>
       </c>
       <c r="H18">
-        <v>2.953700506413347</v>
+        <v>1.59006850079722</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -914,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.473311389932645</v>
+        <v>0.8476087113456039</v>
       </c>
       <c r="D19">
-        <v>1.335420887030211</v>
+        <v>0.8227058398549765</v>
       </c>
       <c r="E19">
-        <v>8.866304240333374</v>
+        <v>3.181230582216515</v>
       </c>
       <c r="F19">
-        <v>2.754835684439129</v>
+        <v>1.717235976586344</v>
       </c>
       <c r="G19">
-        <v>20.57655104942032</v>
+        <v>8.571495866411237</v>
       </c>
       <c r="H19">
-        <v>2.549569896314124</v>
+        <v>1.795335956054075</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -940,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6967299579382628</v>
+        <v>1.319021292073434</v>
       </c>
       <c r="D20">
-        <v>0.6372873549072957</v>
+        <v>1.215678597462154</v>
       </c>
       <c r="E20">
-        <v>3.128396334610162</v>
+        <v>5.227241042004345</v>
       </c>
       <c r="F20">
-        <v>1.364448422370332</v>
+        <v>2.841007801536344</v>
       </c>
       <c r="G20">
-        <v>8.886093189853174</v>
+        <v>13.55770748772816</v>
       </c>
       <c r="H20">
-        <v>1.59006850079722</v>
+        <v>2.601223410067413</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -966,22 +1002,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.8476087113456039</v>
+        <v>0.5975163410034128</v>
       </c>
       <c r="D21">
-        <v>0.8227058398549765</v>
+        <v>0.5369703698485196</v>
       </c>
       <c r="E21">
-        <v>3.181230582216515</v>
+        <v>2.683404557433871</v>
       </c>
       <c r="F21">
-        <v>1.717235976586344</v>
+        <v>1.49776142354867</v>
       </c>
       <c r="G21">
-        <v>8.571495866411237</v>
+        <v>6.341583627128622</v>
       </c>
       <c r="H21">
-        <v>1.795335956054075</v>
+        <v>1.539808072925001</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -992,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.319021292073434</v>
+        <v>1.195635257244731</v>
       </c>
       <c r="D22">
-        <v>1.215678597462154</v>
+        <v>1.082952753278828</v>
       </c>
       <c r="E22">
-        <v>5.227241042004345</v>
+        <v>8.585687504948467</v>
       </c>
       <c r="F22">
-        <v>2.841007801536344</v>
+        <v>3.192345199359925</v>
       </c>
       <c r="G22">
-        <v>13.55770748772816</v>
+        <v>14.27440709406987</v>
       </c>
       <c r="H22">
-        <v>2.601223410067413</v>
+        <v>3.530704380330959</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1018,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5975163410034128</v>
+        <v>1.074955480247707</v>
       </c>
       <c r="D23">
-        <v>0.5369703698485196</v>
+        <v>0.9881988888364782</v>
       </c>
       <c r="E23">
-        <v>2.683404557433871</v>
+        <v>6.77123132849353</v>
       </c>
       <c r="F23">
-        <v>1.49776142354867</v>
+        <v>2.691106044555398</v>
       </c>
       <c r="G23">
-        <v>6.341583627128622</v>
+        <v>11.51766504538369</v>
       </c>
       <c r="H23">
-        <v>1.539808072925001</v>
+        <v>2.520647355590605</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1044,22 +1080,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.195635257244731</v>
+        <v>0.5094397693576319</v>
       </c>
       <c r="D24">
-        <v>1.082952753278828</v>
+        <v>0.4855034119241783</v>
       </c>
       <c r="E24">
-        <v>8.585687504948467</v>
+        <v>4.018003967748442</v>
       </c>
       <c r="F24">
-        <v>3.192345199359925</v>
+        <v>1.206573840736431</v>
       </c>
       <c r="G24">
-        <v>14.27440709406987</v>
+        <v>3.015223969209774</v>
       </c>
       <c r="H24">
-        <v>3.530704380330959</v>
+        <v>1.47742491869678</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1070,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.074955480247707</v>
+        <v>0.2732749692684759</v>
       </c>
       <c r="D25">
-        <v>0.9881988888364782</v>
+        <v>0.2510983444584434</v>
       </c>
       <c r="E25">
-        <v>6.77123132849353</v>
+        <v>0.8004797189094002</v>
       </c>
       <c r="F25">
-        <v>2.691106044555398</v>
+        <v>1.102115139287005</v>
       </c>
       <c r="G25">
-        <v>11.51766504538369</v>
+        <v>2.186268542572547</v>
       </c>
       <c r="H25">
-        <v>2.520647355590605</v>
+        <v>1.24722894374607</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1096,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.5094397693576319</v>
+        <v>0.5168986956383097</v>
       </c>
       <c r="D26">
-        <v>0.4855034119241783</v>
+        <v>0.4808509663353571</v>
       </c>
       <c r="E26">
-        <v>4.018003967748442</v>
+        <v>1.795983823955029</v>
       </c>
       <c r="F26">
-        <v>1.206573840736431</v>
+        <v>1.4611429276079</v>
       </c>
       <c r="G26">
-        <v>3.015223969209774</v>
+        <v>4.355165124975147</v>
       </c>
       <c r="H26">
-        <v>1.47742491869678</v>
+        <v>1.704345207331649</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1122,22 +1158,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.2732749692684759</v>
+        <v>1.114390841807829</v>
       </c>
       <c r="D27">
-        <v>0.2510983444584434</v>
+        <v>1.060618812323751</v>
       </c>
       <c r="E27">
-        <v>0.8004797189094002</v>
+        <v>4.985588198544038</v>
       </c>
       <c r="F27">
-        <v>1.102115139287005</v>
+        <v>3.589751025455393</v>
       </c>
       <c r="G27">
-        <v>2.186268542572547</v>
+        <v>7.770408975455167</v>
       </c>
       <c r="H27">
-        <v>1.24722894374607</v>
+        <v>3.659695379585046</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1148,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.5168986956383097</v>
+        <v>0.4992567860804117</v>
       </c>
       <c r="D28">
-        <v>0.4808509663353571</v>
+        <v>0.4323784910838475</v>
       </c>
       <c r="E28">
-        <v>1.795983823955029</v>
+        <v>1.57243924425681</v>
       </c>
       <c r="F28">
-        <v>1.4611429276079</v>
+        <v>2.035823255292597</v>
       </c>
       <c r="G28">
-        <v>4.355165124975147</v>
+        <v>3.659503452017605</v>
       </c>
       <c r="H28">
-        <v>1.704345207331649</v>
+        <v>2.449828824607271</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1174,22 +1210,22 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1.114390841807829</v>
+        <v>0.419132599929665</v>
       </c>
       <c r="D29">
-        <v>1.060618812323751</v>
+        <v>0.3905786550856468</v>
       </c>
       <c r="E29">
-        <v>4.985588198544038</v>
+        <v>1.082882142642708</v>
       </c>
       <c r="F29">
-        <v>3.589751025455393</v>
+        <v>2.114108512101726</v>
       </c>
       <c r="G29">
-        <v>7.770408975455167</v>
+        <v>3.702703067917205</v>
       </c>
       <c r="H29">
-        <v>3.659695379585046</v>
+        <v>2.340202710069903</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1200,22 +1236,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.4992567860804117</v>
+        <v>0.3994821018366242</v>
       </c>
       <c r="D30">
-        <v>0.4323784910838475</v>
+        <v>0.3749230661460141</v>
       </c>
       <c r="E30">
-        <v>1.57243924425681</v>
+        <v>0.64472604432258</v>
       </c>
       <c r="F30">
-        <v>2.035823255292597</v>
+        <v>2.450071229369902</v>
       </c>
       <c r="G30">
-        <v>3.659503452017605</v>
+        <v>4.025545734219162</v>
       </c>
       <c r="H30">
-        <v>2.449828824607271</v>
+        <v>2.763666371505781</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1226,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.419132599929665</v>
+        <v>0.6596044703115971</v>
       </c>
       <c r="D31">
-        <v>0.3905786550856468</v>
+        <v>0.6101788571771923</v>
       </c>
       <c r="E31">
-        <v>1.082882142642708</v>
+        <v>1.264599850585579</v>
       </c>
       <c r="F31">
-        <v>2.114108512101726</v>
+        <v>3.251111036269194</v>
       </c>
       <c r="G31">
-        <v>3.702703067917205</v>
+        <v>7.578942826556191</v>
       </c>
       <c r="H31">
-        <v>2.340202710069903</v>
+        <v>3.502275837630885</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1252,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.3994821018366242</v>
+        <v>0.7045968087785968</v>
       </c>
       <c r="D32">
-        <v>0.3749230661460141</v>
+        <v>0.6857001698093752</v>
       </c>
       <c r="E32">
-        <v>0.64472604432258</v>
+        <v>1.502501100912677</v>
       </c>
       <c r="F32">
-        <v>2.450071229369902</v>
+        <v>9.354044991150671</v>
       </c>
       <c r="G32">
-        <v>4.025545734219162</v>
+        <v>12.68457051303554</v>
       </c>
       <c r="H32">
-        <v>2.763666371505781</v>
+        <v>10.72169565144349</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1278,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.6596044703115971</v>
+        <v>0.6785724564792207</v>
       </c>
       <c r="D33">
-        <v>0.6101788571771923</v>
+        <v>0.6327252051086152</v>
       </c>
       <c r="E33">
-        <v>1.264599850585579</v>
+        <v>0.728970934387889</v>
       </c>
       <c r="F33">
-        <v>3.251111036269194</v>
+        <v>3.327187837963518</v>
       </c>
       <c r="G33">
-        <v>7.578942826556191</v>
+        <v>4.920329543120083</v>
       </c>
       <c r="H33">
-        <v>3.502275837630885</v>
+        <v>3.809781633153206</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1304,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.7045968087785968</v>
+        <v>0.4775926738881775</v>
       </c>
       <c r="D34">
-        <v>0.6857001698093752</v>
+        <v>0.4519584250625339</v>
       </c>
       <c r="E34">
-        <v>1.502501100912677</v>
+        <v>1.847747511232741</v>
       </c>
       <c r="F34">
-        <v>9.354044991150671</v>
+        <v>1.282294142255277</v>
       </c>
       <c r="G34">
-        <v>12.68457051303554</v>
+        <v>3.428267706435895</v>
       </c>
       <c r="H34">
-        <v>10.72169565144349</v>
+        <v>1.372485411856848</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1330,22 +1366,22 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.6785724564792207</v>
+        <v>1.117969494875402</v>
       </c>
       <c r="D35">
-        <v>0.6327252051086152</v>
+        <v>1.078053992358099</v>
       </c>
       <c r="E35">
-        <v>0.728970934387889</v>
+        <v>3.682565587853702</v>
       </c>
       <c r="F35">
-        <v>3.327187837963518</v>
+        <v>3.663467669060131</v>
       </c>
       <c r="G35">
-        <v>4.920329543120083</v>
+        <v>11.27742107531559</v>
       </c>
       <c r="H35">
-        <v>3.809781633153206</v>
+        <v>3.653560583596398</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1356,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.4775926738881775</v>
+        <v>1.057580491031963</v>
       </c>
       <c r="D36">
-        <v>0.4519584250625339</v>
+        <v>1.056923200484398</v>
       </c>
       <c r="E36">
-        <v>1.847747511232741</v>
+        <v>6.088500636927199</v>
       </c>
       <c r="F36">
-        <v>1.282294142255277</v>
+        <v>3.620781368404028</v>
       </c>
       <c r="G36">
-        <v>3.428267706435895</v>
+        <v>6.486183066447697</v>
       </c>
       <c r="H36">
-        <v>1.372485411856848</v>
+        <v>4.214556598341964</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1382,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.117969494875402</v>
+        <v>0.7750641493242751</v>
       </c>
       <c r="D37">
-        <v>1.078053992358099</v>
+        <v>0.7297640784713986</v>
       </c>
       <c r="E37">
-        <v>3.682565587853702</v>
+        <v>2.521779569549764</v>
       </c>
       <c r="F37">
-        <v>3.663467669060131</v>
+        <v>1.691154306625285</v>
       </c>
       <c r="G37">
-        <v>11.27742107531559</v>
+        <v>5.684411785253324</v>
       </c>
       <c r="H37">
-        <v>3.653560583596398</v>
+        <v>1.755528249992094</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1408,73 +1444,21 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1.057580491031963</v>
+        <v>0.9037721321326575</v>
       </c>
       <c r="D38">
-        <v>1.056923200484398</v>
+        <v>0.7980320161124955</v>
       </c>
       <c r="E38">
-        <v>6.088500636927199</v>
+        <v>2.777584578089371</v>
       </c>
       <c r="F38">
-        <v>3.620781368404028</v>
+        <v>1.944154335188518</v>
       </c>
       <c r="G38">
-        <v>6.486183066447697</v>
+        <v>5.534464498790104</v>
       </c>
       <c r="H38">
-        <v>4.214556598341964</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0.7750641493242751</v>
-      </c>
-      <c r="D39">
-        <v>0.7297640784713986</v>
-      </c>
-      <c r="E39">
-        <v>2.521779569549764</v>
-      </c>
-      <c r="F39">
-        <v>1.691154306625285</v>
-      </c>
-      <c r="G39">
-        <v>5.684411785253324</v>
-      </c>
-      <c r="H39">
-        <v>1.755528249992094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0.9037721321326575</v>
-      </c>
-      <c r="D40">
-        <v>0.7980320161124955</v>
-      </c>
-      <c r="E40">
-        <v>2.777584578089371</v>
-      </c>
-      <c r="F40">
-        <v>1.944154335188518</v>
-      </c>
-      <c r="G40">
-        <v>5.534464498790104</v>
-      </c>
-      <c r="H40">
         <v>2.114459970751701</v>
       </c>
     </row>
